--- a/Uddeholm.Test/bin/debug/vaadstraaling.xlsx
+++ b/Uddeholm.Test/bin/debug/vaadstraaling.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17702"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="1B2277DE5F57B000BD2FB061050FE1A10C706109" xr6:coauthVersionLast="12" xr6:coauthVersionMax="12" xr10:uidLastSave="{3DFDC258-AF4A-4336-B69D-844D3B706E82}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -128,8 +129,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -980,16 +981,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="47.45" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1009,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>50.09</v>
       </c>
@@ -1030,7 +1031,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="9">
         <v>100.09</v>
       </c>
@@ -1052,7 +1053,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>150.09</v>
       </c>
@@ -1074,7 +1075,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="17.45">
       <c r="A5" s="9">
         <v>200.09</v>
       </c>
@@ -1096,7 +1097,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>300.08999999999997</v>
       </c>
@@ -1118,7 +1119,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="53.45">
       <c r="A7" s="9">
         <v>500.09</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="17.45">
       <c r="A8" s="5">
         <v>750.09</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="17.45">
       <c r="A9" s="9">
         <v>1000.09</v>
       </c>
@@ -1198,7 +1199,7 @@
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <v>1500.09</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="9">
         <v>2000.09</v>
       </c>
@@ -1250,7 +1251,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="5">
         <v>3000.09</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="9">
         <v>4000.09</v>
       </c>
@@ -1306,7 +1307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="5">
         <v>5000.09</v>
       </c>
@@ -1328,7 +1329,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="9">
         <v>6000.09</v>
       </c>
@@ -1350,7 +1351,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="5">
         <v>7000.09</v>
       </c>
@@ -1372,7 +1373,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="9">
         <v>8000.09</v>
       </c>
@@ -1394,7 +1395,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="5">
         <v>9000.09</v>
       </c>
@@ -1416,7 +1417,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="9">
         <v>10000.09</v>
       </c>
@@ -1438,7 +1439,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="5">
         <v>11000.09</v>
       </c>
@@ -1460,7 +1461,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="9">
         <v>12000.09</v>
       </c>
@@ -1482,7 +1483,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="5">
         <v>13000.09</v>
       </c>
@@ -1504,7 +1505,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="9">
         <v>15000.09</v>
       </c>
@@ -1526,7 +1527,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="5">
         <v>20000.09</v>
       </c>
@@ -1548,7 +1549,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="9">
         <v>25000.09</v>
       </c>
@@ -1570,7 +1571,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="5">
         <v>30000.09</v>
       </c>
@@ -1592,7 +1593,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="9">
         <v>35000.089999999997</v>
       </c>
@@ -1614,7 +1615,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" thickBot="1">
       <c r="A28" s="26">
         <v>40000.089999999997</v>
       </c>

--- a/Uddeholm.Test/bin/debug/vaadstraaling.xlsx
+++ b/Uddeholm.Test/bin/debug/vaadstraaling.xlsx
@@ -1,18 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="1B2277DE5F57B000BD2FB061050FE1A10C706109" xr6:coauthVersionLast="12" xr6:coauthVersionMax="12" xr10:uidLastSave="{3DFDC258-AF4A-4336-B69D-844D3B706E82}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -129,8 +125,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,7 +501,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,171 +514,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PL_DKK_20161101"/>
-      <sheetName val="INFO"/>
-      <sheetName val="PL_EURO"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="G8">
-            <v>7.5</v>
-          </cell>
-          <cell r="H8">
-            <v>1.25</v>
-          </cell>
-          <cell r="I8">
-            <v>1.1499999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="10">
-          <cell r="B10">
-            <v>1.99</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>2.65</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>3.32</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>3.98</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>4.6399999999999997</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>5.3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>6.63</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>7.96</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>8.6199999999999992</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>9.9499999999999993</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>11.27</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>13.26</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>15.93</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>19.11</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>22.93</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>27.52</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>33.020000000000003</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>39.619999999999997</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>47.55</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>57.07</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>68.48</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>82.19</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>98.62</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>118.34</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>142.01</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>170.42</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>204.49</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -981,16 +812,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.45" thickBot="1">
+    <row r="1" spans="1:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,20 +840,17 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>50.09</v>
       </c>
       <c r="B2" s="6">
-        <f>+$H$13+D2</f>
         <v>76.454687500000006</v>
       </c>
       <c r="C2" s="7">
-        <f>+$H$12+D2</f>
         <v>56.454687499999999</v>
       </c>
       <c r="D2" s="8">
-        <f>+([1]PL_EURO!B10*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
         <v>36.454687499999999</v>
       </c>
       <c r="E2" s="4"/>
@@ -1031,20 +859,17 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>100.09</v>
       </c>
       <c r="B3" s="10">
-        <f t="shared" ref="B3:B28" si="0">+$H$13+D3</f>
         <v>83.5703125</v>
       </c>
       <c r="C3" s="11">
-        <f t="shared" ref="C3:C28" si="1">+$H$12+D3</f>
         <v>63.5703125</v>
       </c>
       <c r="D3" s="12">
-        <f>+([1]PL_EURO!B11*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
         <v>43.5703125</v>
       </c>
       <c r="E3" s="4"/>
@@ -1053,21 +878,18 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>150.09</v>
       </c>
       <c r="B4" s="13">
-        <f t="shared" si="0"/>
-        <v>90.793749999999989</v>
+        <v>90.793750000000003</v>
       </c>
       <c r="C4" s="7">
-        <f t="shared" si="1"/>
-        <v>70.793749999999989</v>
+        <v>70.793750000000003</v>
       </c>
       <c r="D4" s="8">
-        <f>+([1]PL_EURO!B12*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
-        <v>50.793749999999996</v>
+        <v>50.793750000000003</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -1075,20 +897,17 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="17.45">
+    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>200.09</v>
       </c>
       <c r="B5" s="10">
-        <f t="shared" si="0"/>
         <v>97.909374999999997</v>
       </c>
       <c r="C5" s="11">
-        <f t="shared" si="1"/>
         <v>77.909374999999997</v>
       </c>
       <c r="D5" s="12">
-        <f>+([1]PL_EURO!B13*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
         <v>57.909374999999997</v>
       </c>
       <c r="E5" s="15"/>
@@ -1097,20 +916,17 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>300.08999999999997</v>
       </c>
       <c r="B6" s="13">
-        <f t="shared" si="0"/>
         <v>105.02500000000001</v>
       </c>
       <c r="C6" s="7">
-        <f t="shared" si="1"/>
         <v>85.025000000000006</v>
       </c>
       <c r="D6" s="8">
-        <f>+([1]PL_EURO!B14*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
         <v>65.025000000000006</v>
       </c>
       <c r="E6" s="14"/>
@@ -1119,20 +935,17 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="53.45">
+    <row r="7" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>500.09</v>
       </c>
       <c r="B7" s="10">
-        <f t="shared" si="0"/>
         <v>112.140625</v>
       </c>
       <c r="C7" s="11">
-        <f t="shared" si="1"/>
         <v>92.140625</v>
       </c>
       <c r="D7" s="12">
-        <f>+([1]PL_EURO!B15*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
         <v>72.140625</v>
       </c>
       <c r="E7" s="16"/>
@@ -1147,20 +960,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.45">
+    <row r="8" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>750.09</v>
       </c>
       <c r="B8" s="13">
-        <f t="shared" si="0"/>
         <v>126.4796875</v>
       </c>
       <c r="C8" s="7">
-        <f t="shared" si="1"/>
         <v>106.4796875</v>
       </c>
       <c r="D8" s="8">
-        <f>+([1]PL_EURO!B16*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
         <v>86.479687499999997</v>
       </c>
       <c r="E8" s="19"/>
@@ -1175,20 +985,17 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.45">
+    <row r="9" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1000.09</v>
       </c>
       <c r="B9" s="10">
-        <f t="shared" si="0"/>
         <v>140.81874999999999</v>
       </c>
       <c r="C9" s="11">
-        <f t="shared" si="1"/>
         <v>120.81874999999999</v>
       </c>
       <c r="D9" s="12">
-        <f>+([1]PL_EURO!B17*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
         <v>100.81874999999999</v>
       </c>
       <c r="E9" s="19"/>
@@ -1199,21 +1006,18 @@
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>1500.09</v>
       </c>
       <c r="B10" s="13">
-        <f t="shared" si="0"/>
         <v>147.93437499999999</v>
       </c>
       <c r="C10" s="7">
-        <f t="shared" si="1"/>
-        <v>127.93437499999997</v>
+        <v>127.934375</v>
       </c>
       <c r="D10" s="8">
-        <f>+([1]PL_EURO!B18*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
-        <v>107.93437499999997</v>
+        <v>107.934375</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1227,21 +1031,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>2000.09</v>
       </c>
       <c r="B11" s="10">
-        <f t="shared" si="0"/>
         <v>162.2734375</v>
       </c>
       <c r="C11" s="11">
-        <f t="shared" si="1"/>
         <v>142.2734375</v>
       </c>
       <c r="D11" s="12">
-        <f>+([1]PL_EURO!B19*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
-        <v>122.27343749999999</v>
+        <v>122.2734375</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1251,20 +1052,17 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>3000.09</v>
       </c>
       <c r="B12" s="13">
-        <f t="shared" si="0"/>
         <v>176.50468749999999</v>
       </c>
       <c r="C12" s="7">
-        <f t="shared" si="1"/>
         <v>156.50468749999999</v>
       </c>
       <c r="D12" s="8">
-        <f>+([1]PL_EURO!B20*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
         <v>136.50468749999999</v>
       </c>
       <c r="E12" s="4"/>
@@ -1279,20 +1077,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>4000.09</v>
       </c>
       <c r="B13" s="10">
-        <f t="shared" si="0"/>
         <v>197.95937499999999</v>
       </c>
       <c r="C13" s="11">
-        <f t="shared" si="1"/>
         <v>177.95937499999999</v>
       </c>
       <c r="D13" s="12">
-        <f>+([1]PL_EURO!B21*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
         <v>157.95937499999999</v>
       </c>
       <c r="E13" s="4"/>
@@ -1307,21 +1102,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>5000.09</v>
       </c>
       <c r="B14" s="13">
-        <f t="shared" si="0"/>
-        <v>226.74531249999998</v>
+        <v>226.74531250000001</v>
       </c>
       <c r="C14" s="7">
-        <f t="shared" si="1"/>
-        <v>206.74531249999998</v>
+        <v>206.74531250000001</v>
       </c>
       <c r="D14" s="8">
-        <f>+([1]PL_EURO!B22*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
-        <v>186.74531249999998</v>
+        <v>186.74531250000001</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1329,20 +1121,17 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>6000.09</v>
       </c>
       <c r="B15" s="10">
-        <f t="shared" si="0"/>
         <v>261.02968750000002</v>
       </c>
       <c r="C15" s="11">
-        <f t="shared" si="1"/>
         <v>241.02968749999999</v>
       </c>
       <c r="D15" s="12">
-        <f>+([1]PL_EURO!B23*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
         <v>221.02968749999999</v>
       </c>
       <c r="E15" s="4"/>
@@ -1351,21 +1140,18 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>7000.09</v>
       </c>
       <c r="B16" s="13">
-        <f t="shared" si="0"/>
-        <v>302.21406249999995</v>
+        <v>302.21406250000001</v>
       </c>
       <c r="C16" s="7">
-        <f t="shared" si="1"/>
-        <v>282.21406249999995</v>
+        <v>282.21406250000001</v>
       </c>
       <c r="D16" s="8">
-        <f>+([1]PL_EURO!B24*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
-        <v>262.21406249999995</v>
+        <v>262.21406250000001</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1373,20 +1159,17 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>8000.09</v>
       </c>
       <c r="B17" s="10">
-        <f t="shared" si="0"/>
         <v>351.7</v>
       </c>
       <c r="C17" s="11">
-        <f t="shared" si="1"/>
         <v>331.7</v>
       </c>
       <c r="D17" s="12">
-        <f>+([1]PL_EURO!B25*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
         <v>311.7</v>
       </c>
       <c r="E17" s="4"/>
@@ -1395,21 +1178,18 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>9000.09</v>
       </c>
       <c r="B18" s="13">
-        <f t="shared" si="0"/>
-        <v>410.99687500000005</v>
+        <v>410.99687499999999</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" si="1"/>
-        <v>390.99687500000005</v>
+        <v>390.99687499999999</v>
       </c>
       <c r="D18" s="8">
-        <f>+([1]PL_EURO!B26*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
-        <v>370.99687500000005</v>
+        <v>370.99687499999999</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1417,20 +1197,17 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>10000.09</v>
       </c>
       <c r="B19" s="10">
-        <f t="shared" si="0"/>
         <v>482.15312499999999</v>
       </c>
       <c r="C19" s="11">
-        <f t="shared" si="1"/>
         <v>462.15312499999999</v>
       </c>
       <c r="D19" s="12">
-        <f>+([1]PL_EURO!B27*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
         <v>442.15312499999999</v>
       </c>
       <c r="E19" s="4"/>
@@ -1439,20 +1216,17 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>11000.09</v>
       </c>
       <c r="B20" s="13">
-        <f t="shared" si="0"/>
         <v>567.6484375</v>
       </c>
       <c r="C20" s="7">
-        <f t="shared" si="1"/>
         <v>547.6484375</v>
       </c>
       <c r="D20" s="8">
-        <f>+([1]PL_EURO!B28*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
         <v>527.6484375</v>
       </c>
       <c r="E20" s="4"/>
@@ -1461,21 +1235,18 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>12000.09</v>
       </c>
       <c r="B21" s="10">
-        <f t="shared" si="0"/>
-        <v>670.28593749999993</v>
+        <v>670.28593750000005</v>
       </c>
       <c r="C21" s="11">
-        <f t="shared" si="1"/>
-        <v>650.28593749999993</v>
+        <v>650.28593750000005</v>
       </c>
       <c r="D21" s="12">
-        <f>+([1]PL_EURO!B29*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
-        <v>630.28593749999993</v>
+        <v>630.28593750000005</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1483,20 +1254,17 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>13000.09</v>
       </c>
       <c r="B22" s="13">
-        <f t="shared" si="0"/>
         <v>793.3</v>
       </c>
       <c r="C22" s="7">
-        <f t="shared" si="1"/>
         <v>773.3</v>
       </c>
       <c r="D22" s="8">
-        <f>+([1]PL_EURO!B30*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
         <v>753.3</v>
       </c>
       <c r="E22" s="4"/>
@@ -1505,20 +1273,17 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>15000.09</v>
       </c>
       <c r="B23" s="10">
-        <f t="shared" si="0"/>
         <v>941.11093749999998</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" si="1"/>
         <v>921.11093749999998</v>
       </c>
       <c r="D23" s="12">
-        <f>+([1]PL_EURO!B31*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
         <v>901.11093749999998</v>
       </c>
       <c r="E23" s="4"/>
@@ -1527,20 +1292,17 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>20000.09</v>
       </c>
       <c r="B24" s="13">
-        <f t="shared" si="0"/>
         <v>1118.246875</v>
       </c>
       <c r="C24" s="7">
-        <f t="shared" si="1"/>
         <v>1098.246875</v>
       </c>
       <c r="D24" s="8">
-        <f>+([1]PL_EURO!B32*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
         <v>1078.246875</v>
       </c>
       <c r="E24" s="4"/>
@@ -1549,21 +1311,18 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>25000.09</v>
       </c>
       <c r="B25" s="10">
-        <f t="shared" si="0"/>
-        <v>1330.8531249999999</v>
+        <v>1330.8531250000001</v>
       </c>
       <c r="C25" s="11">
-        <f t="shared" si="1"/>
-        <v>1310.8531249999999</v>
+        <v>1310.8531250000001</v>
       </c>
       <c r="D25" s="12">
-        <f>+([1]PL_EURO!B33*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
-        <v>1290.8531249999999</v>
+        <v>1290.8531250000001</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1571,21 +1330,18 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>30000.09</v>
       </c>
       <c r="B26" s="13">
-        <f t="shared" si="0"/>
-        <v>1586.0453124999997</v>
+        <v>1586.0453124999999</v>
       </c>
       <c r="C26" s="7">
-        <f t="shared" si="1"/>
-        <v>1566.0453124999997</v>
+        <v>1566.0453124999999</v>
       </c>
       <c r="D26" s="8">
-        <f>+([1]PL_EURO!B34*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
-        <v>1546.0453124999997</v>
+        <v>1546.0453124999999</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1593,21 +1349,18 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>35000.089999999997</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" si="0"/>
-        <v>1892.3406249999996</v>
+        <v>1892.340625</v>
       </c>
       <c r="C27" s="11">
-        <f t="shared" si="1"/>
-        <v>1872.3406249999996</v>
+        <v>1872.340625</v>
       </c>
       <c r="D27" s="12">
-        <f>+([1]PL_EURO!B35*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
-        <v>1852.3406249999996</v>
+        <v>1852.340625</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1615,20 +1368,17 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1">
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26">
         <v>40000.089999999997</v>
       </c>
       <c r="B28" s="27">
-        <f t="shared" si="0"/>
         <v>2259.6578125000001</v>
       </c>
       <c r="C28" s="28">
-        <f t="shared" si="1"/>
         <v>2239.6578125000001</v>
       </c>
       <c r="D28" s="29">
-        <f>+([1]PL_EURO!B36*[1]PL_DKK_20161101!$G$8*[1]PL_DKK_20161101!$H$8*[1]PL_DKK_20161101!$I$8)+$H$10</f>
         <v>2219.6578125000001</v>
       </c>
       <c r="E28" s="4"/>
